--- a/Тескейсы ВК.xlsx
+++ b/Тескейсы ВК.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="Workbook________"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmpetov/Desktop/работа за границей/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmpetov/Documents/GitHub/MFP/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="682" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" tabRatio="682" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" state="hidden" r:id="rId1"/>
@@ -626,7 +626,7 @@
 </t>
   </si>
   <si>
-    <t>Изменение поля  "Год рождения"</t>
+    <t>Изменение поле  "Год рождения"</t>
   </si>
 </sst>
 </file>
@@ -977,6 +977,30 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -991,30 +1015,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1412,10 +1412,10 @@
   <dimension ref="A1:Z72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="120" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="11" ySplit="7" topLeftCell="L35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="7" topLeftCell="L50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="F37" sqref="F37"/>
+      <selection pane="bottomRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1631,43 +1631,43 @@
     </row>
     <row r="6" spans="1:26" ht="27" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="42" t="s">
+      <c r="F6" s="45"/>
+      <c r="G6" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="39" t="s">
+      <c r="H6" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="39" t="s">
+      <c r="I6" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="47"/>
+      <c r="J6" s="41"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="46" t="s">
+      <c r="L6" s="40" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="11"/>
-      <c r="N6" s="46" t="s">
+      <c r="N6" s="40" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="11"/>
-      <c r="P6" s="46"/>
+      <c r="P6" s="40"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="46"/>
+      <c r="R6" s="40"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="46"/>
+      <c r="T6" s="40"/>
       <c r="U6" s="11"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1677,29 +1677,29 @@
     </row>
     <row r="7" spans="1:26" ht="127" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="38"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="46"/>
       <c r="E7" s="24" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="48"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="42"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="46"/>
+      <c r="L7" s="40"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="46"/>
+      <c r="N7" s="40"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="46"/>
+      <c r="P7" s="40"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="46"/>
+      <c r="R7" s="40"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="46"/>
+      <c r="T7" s="40"/>
       <c r="U7" s="11"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -2109,7 +2109,7 @@
       <c r="B19" s="3">
         <v>12</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="37" t="s">
         <v>51</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -2147,7 +2147,7 @@
       <c r="B20" s="3">
         <v>13</v>
       </c>
-      <c r="C20" s="45"/>
+      <c r="C20" s="39"/>
       <c r="D20" s="3" t="s">
         <v>55</v>
       </c>
@@ -2183,7 +2183,7 @@
       <c r="B21" s="3">
         <v>14</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="37" t="s">
         <v>58</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -2221,7 +2221,7 @@
       <c r="B22" s="3">
         <v>15</v>
       </c>
-      <c r="C22" s="49"/>
+      <c r="C22" s="38"/>
       <c r="D22" s="3" t="s">
         <v>61</v>
       </c>
@@ -2257,7 +2257,7 @@
       <c r="B23" s="3">
         <v>16</v>
       </c>
-      <c r="C23" s="49"/>
+      <c r="C23" s="38"/>
       <c r="D23" s="4" t="s">
         <v>65</v>
       </c>
@@ -2293,7 +2293,7 @@
       <c r="B24" s="3">
         <v>17</v>
       </c>
-      <c r="C24" s="49"/>
+      <c r="C24" s="38"/>
       <c r="D24" s="4" t="s">
         <v>66</v>
       </c>
@@ -2329,7 +2329,7 @@
       <c r="B25" s="3">
         <v>18</v>
       </c>
-      <c r="C25" s="49"/>
+      <c r="C25" s="38"/>
       <c r="D25" s="3" t="s">
         <v>69</v>
       </c>
@@ -2365,7 +2365,7 @@
       <c r="B26" s="3">
         <v>19</v>
       </c>
-      <c r="C26" s="49"/>
+      <c r="C26" s="38"/>
       <c r="D26" s="3" t="s">
         <v>71</v>
       </c>
@@ -2401,7 +2401,7 @@
       <c r="B27" s="3">
         <v>20</v>
       </c>
-      <c r="C27" s="49"/>
+      <c r="C27" s="38"/>
       <c r="D27" s="3" t="s">
         <v>72</v>
       </c>
@@ -2437,7 +2437,7 @@
       <c r="B28" s="3">
         <v>21</v>
       </c>
-      <c r="C28" s="49"/>
+      <c r="C28" s="38"/>
       <c r="D28" s="3" t="s">
         <v>78</v>
       </c>
@@ -2473,7 +2473,7 @@
       <c r="B29" s="3">
         <v>22</v>
       </c>
-      <c r="C29" s="49"/>
+      <c r="C29" s="38"/>
       <c r="D29" s="3" t="s">
         <v>80</v>
       </c>
@@ -2509,7 +2509,7 @@
       <c r="B30" s="3">
         <v>23</v>
       </c>
-      <c r="C30" s="49"/>
+      <c r="C30" s="38"/>
       <c r="D30" s="3" t="s">
         <v>82</v>
       </c>
@@ -2545,7 +2545,7 @@
       <c r="B31" s="3">
         <v>24</v>
       </c>
-      <c r="C31" s="49"/>
+      <c r="C31" s="38"/>
       <c r="D31" s="3" t="s">
         <v>85</v>
       </c>
@@ -2581,7 +2581,7 @@
       <c r="B32" s="3">
         <v>25</v>
       </c>
-      <c r="C32" s="49"/>
+      <c r="C32" s="38"/>
       <c r="D32" s="3" t="s">
         <v>87</v>
       </c>
@@ -2617,7 +2617,7 @@
       <c r="B33" s="3">
         <v>26</v>
       </c>
-      <c r="C33" s="49"/>
+      <c r="C33" s="38"/>
       <c r="D33" s="3" t="s">
         <v>90</v>
       </c>
@@ -2653,7 +2653,7 @@
       <c r="B34" s="3">
         <v>27</v>
       </c>
-      <c r="C34" s="49"/>
+      <c r="C34" s="38"/>
       <c r="D34" s="3" t="s">
         <v>93</v>
       </c>
@@ -2689,7 +2689,7 @@
       <c r="B35" s="3">
         <v>28</v>
       </c>
-      <c r="C35" s="49"/>
+      <c r="C35" s="38"/>
       <c r="D35" s="3" t="s">
         <v>95</v>
       </c>
@@ -2725,7 +2725,7 @@
       <c r="B36" s="3">
         <v>29</v>
       </c>
-      <c r="C36" s="49"/>
+      <c r="C36" s="38"/>
       <c r="D36" s="3" t="s">
         <v>100</v>
       </c>
@@ -2761,7 +2761,7 @@
       <c r="B37" s="3">
         <v>30</v>
       </c>
-      <c r="C37" s="49"/>
+      <c r="C37" s="38"/>
       <c r="D37" s="3" t="s">
         <v>99</v>
       </c>
@@ -2797,7 +2797,7 @@
       <c r="B38" s="3">
         <v>31</v>
       </c>
-      <c r="C38" s="49"/>
+      <c r="C38" s="38"/>
       <c r="D38" s="3" t="s">
         <v>101</v>
       </c>
@@ -3821,6 +3821,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="C21:C38"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="T6:T7"/>
@@ -3830,12 +3836,6 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N8:N53 L8:L53 R8:R53 P8:P53 T8:T53">
